--- a/final_measurements/with_gender_and_age_list_frequency_unbiasing_per_cluster.xlsx
+++ b/final_measurements/with_gender_and_age_list_frequency_unbiasing_per_cluster.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28412"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="209" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE95EA9D-DF4D-40FA-A837-31CAC5A638DE}"/>
+  <xr:revisionPtr revIDLastSave="211" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD336777-4DD0-42C0-BFED-7BAE15394A5F}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1294,16 +1294,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG509"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
-      <selection activeCell="BG1" sqref="BG1:BG1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="5" customWidth="1"/>
     <col min="2" max="2" width="26.140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="26.140625" style="6" customWidth="1"/>
-    <col min="4" max="10" width="26.140625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="26.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="26.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16" width="26.140625" style="1" customWidth="1"/>
     <col min="17" max="17" width="29.140625" style="1" bestFit="1" customWidth="1"/>
